--- a/180128_换层提升机测试V1.1.xlsx
+++ b/180128_换层提升机测试V1.1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="98">
   <si>
     <t>TEST DESCRIPTION测试描述</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -57,10 +57,6 @@
   </si>
   <si>
     <t>3.0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -78,10 +74,6 @@
   </si>
   <si>
     <t>按下HMI界面上的右伸叉按钮，测试换层提升机右拨叉伸叉运行状态，检测到伸叉到位信号停止。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>按下HMI界面上的左收叉按钮，测试换层提升机左拨叉收叉运行状态，检测到收叉到位信号停止。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -115,10 +107,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>遥控控制母车进入提升机或离开提升机时，提升机当前层为零时会报提升机未准备好故障。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>遥控控制母车进入提升机，提升机当前楼层与母车所在层不一致时，母车到达靠近提升机最近一条货道等待。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -140,10 +128,6 @@
   </si>
   <si>
     <t>半自动定位控制中任意拨叉没有收回到位信号，提升机停止运行。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过WCS下达移动命令进入提升机或到其他楼层，提升机楼层为零时，报提升机未准备好故障。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -211,10 +195,6 @@
   </si>
   <si>
     <t>4.4</t>
-  </si>
-  <si>
-    <t>5.0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>5.2</t>
@@ -358,7 +338,85 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>遥控控制母车进入提升机或离开提升机时，提升机当前层为零时会报提升机未准备好故障。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动测试叉子伸出收回超时时间，通常设置为5S即可，如果叉子运行5S还没有停止，则报叉子运行超时</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>按下HMI界面上的左收叉按钮，测试换层提升机左拨叉收叉运行状态，检测到收叉到位信号停止。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时遮挡叉子伸出和收回检测开关，此时提升机报警：伸出收回开关同时检测故障。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过WCS下达移动命令进入提升机或到其他楼层，提升机楼层为零时，报提升机未准备好故障。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>半自动空载定位完成以后，将母车开上提升机，对每一层的站台重新进行测试。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>半自动空载定位完成以后，将母车+子车+实托盘开上提升机，对每一层的站台重新进行测试。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>半自动空载定位完成以后，将母车+子车+空托盘开上提升机，对每一层的站台重新进行测试。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>半自动空载定位完成以后，将母车+子车开上提升机，对每一层的站台重新进行测试。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>4.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>4.5</t>
+  </si>
+  <si>
+    <t>4.10</t>
+  </si>
+  <si>
+    <t>提升机收到母车正在驶入和离开提升机信号时，提升机禁止运行。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度可以逐步增加，一直到满速或者机械结构能达到的速度</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -544,7 +602,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -572,6 +630,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -579,13 +646,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -949,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="B43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -965,180 +1047,180 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="10"/>
+      <c r="A1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="13"/>
       <c r="C1" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:5" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
+      <c r="B3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>34</v>
+      <c r="A4" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
-        <v>35</v>
+      <c r="A6" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="3"/>
+    <row r="7" spans="1:5" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="20"/>
       <c r="D7" s="6"/>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>36</v>
+      <c r="A8" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
+    <row r="9" spans="1:5" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:5" s="8" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="3"/>
+    <row r="12" spans="1:5" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="20"/>
       <c r="D12" s="6"/>
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -1146,161 +1228,161 @@
     </row>
     <row r="17" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>15</v>
+        <v>60</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
-        <v>38</v>
+      <c r="A18" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:5" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7"/>
+      <c r="B19" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="16"/>
     </row>
     <row r="20" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
-        <v>39</v>
+      <c r="A20" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
-        <v>40</v>
+      <c r="A21" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>69</v>
+      <c r="A22" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="6"/>
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
-        <v>41</v>
+      <c r="A23" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
-        <v>42</v>
+      <c r="A24" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
-        <v>43</v>
+      <c r="A25" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
-        <v>44</v>
+      <c r="A26" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>23</v>
+      <c r="A27" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="6"/>
       <c r="E27" s="7"/>
     </row>
     <row r="28" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
-        <v>45</v>
+      <c r="A28" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
-        <v>46</v>
+      <c r="A29" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
-        <v>47</v>
+      <c r="A30" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="7"/>
     </row>
     <row r="31" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="12" t="s">
-        <v>10</v>
+      <c r="A31" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>78</v>
@@ -1310,120 +1392,209 @@
       <c r="E31" s="7"/>
     </row>
     <row r="32" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="3"/>
+      <c r="A32" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="7"/>
     </row>
     <row r="33" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>27</v>
+      <c r="A33" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="12" t="s">
-        <v>49</v>
+      <c r="A34" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="C34" s="3"/>
       <c r="D34" s="6"/>
       <c r="E34" s="7"/>
     </row>
     <row r="35" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="12" t="s">
-        <v>50</v>
+      <c r="A35" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="12" t="s">
-        <v>81</v>
+      <c r="A36" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="7"/>
     </row>
     <row r="37" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="12" t="s">
-        <v>51</v>
+      <c r="A37" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="7"/>
     </row>
     <row r="38" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="3"/>
+      <c r="A38" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="12" t="s">
-        <v>52</v>
+      <c r="A39" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="7"/>
     </row>
     <row r="40" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="12" t="s">
-        <v>53</v>
+      <c r="A40" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="7"/>
     </row>
     <row r="41" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="12" t="s">
-        <v>79</v>
+      <c r="A41" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42"/>
-    </row>
+    <row r="42" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="7"/>
+    </row>
+    <row r="43" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="7"/>
+    </row>
+    <row r="45" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48" spans="1:5" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="7"/>
+    </row>
+    <row r="49" spans="1:5" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+    </row>
+    <row r="51" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
